--- a/starter/src/main/resources/static/downloads/excel/kbase_taboo.xlsx
+++ b/starter/src/main/resources/static/downloads/excel/kbase_taboo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29440" windowHeight="10100"/>
+    <workbookView windowWidth="27600" windowHeight="10720"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>政治</t>
   </si>
   <si>
-    <t>法沦功</t>
+    <t>法轮功</t>
   </si>
   <si>
     <t>天安门事件</t>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>

--- a/starter/src/main/resources/static/downloads/excel/kbase_taboo.xlsx
+++ b/starter/src/main/resources/static/downloads/excel/kbase_taboo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27600" windowHeight="10720"/>
+    <workbookView windowWidth="29440" windowHeight="10100"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>政治</t>
   </si>
   <si>
-    <t>法轮功</t>
+    <t>法沦功</t>
   </si>
   <si>
     <t>天安门事件</t>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
